--- a/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2014 Promos  (PDP14).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2014 Promos  (PDP14).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,105 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bonescythe Sliver</t>
+          <t>('Bonescythe Sliver', ['{3}{W}', 'Creature — Sliver', 'Sliver creatures you control have double strike. (They deal both first-strike and regular combat damage.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{W}</t>
+          <t>('Ogre Battledriver', ['{2}{R}{R}', 'Creature — Ogre Warrior', 'Whenever another creature enters the battlefield under your control, that creature gets +2/+0 and gains haste until end of turn. (It can attack and {T} this turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sliver creatures you control have double strike. (They deal both first-strike and regular combat damage.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ogre Battledriver</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{2}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Creature — Ogre Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Whenever another creature enters the battlefield under your control, that creature gets +2/+0 and gains haste until end of turn. (It can attack and {T} this turn.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Scavenging Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{G}: Exile target card from a graveyard. If it was a creature card, put a +1/+1 counter on Scavenging Ooze and you gain 1 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Scavenging Ooze', ['{1}{G}', 'Creature — Ooze', '{G}: Exile target card from a graveyard. If it was a creature card, put a +1/+1 counter on Scavenging Ooze and you gain 1 life.', '2/2'])</t>
         </is>
       </c>
     </row>
